--- a/2. 연구사업(2023년)/6. 분석결과/corrected_data_python.xlsx
+++ b/2. 연구사업(2023년)/6. 분석결과/corrected_data_python.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Study\2. 연구사업(2023년)\6. 분석결과\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2305,7 +2305,7 @@
   <dimension ref="A1:AW136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I2" sqref="I2:I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>

--- a/2. 연구사업(2023년)/6. 분석결과/corrected_data_python.xlsx
+++ b/2. 연구사업(2023년)/6. 분석결과/corrected_data_python.xlsx
@@ -2304,8 +2304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I46"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -15226,7 +15226,7 @@
         <v>33.343575812000751</v>
       </c>
       <c r="J97" s="4">
-        <v>0.66362435535969666</v>
+        <v>0.66362435535969699</v>
       </c>
       <c r="K97" s="4">
         <v>11.182567737916139</v>
